--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3062497.33162644</v>
+        <v>3056145.589085306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223176</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7333815.793812282</v>
+        <v>7333225.814421863</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>94.09617870327899</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956507</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023833921</v>
+        <v>74.86702424529797</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159213</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>63.62754490672853</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725778519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>294.4762777510733</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680793803</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899916</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.51873941948825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>198.5504494254396</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.86039560144248</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.07584602384463</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.05953663490257</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1594,7 +1594,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972058</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>273.4823810173248</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08856449578116</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497692</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277183</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555341</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689343</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080563</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587574</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303123</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026097</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.92391191189525</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443491</v>
+        <v>48.81858568179537</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896129</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431828</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769522</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548308</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897091</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620403</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782369</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.4732329281061</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994583</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282494</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.72284161259221</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498434</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.89393170155638</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272831</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184231</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.75808915271155</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868836</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139535</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008194</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215696</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682821</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449585</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840509</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803923346</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.25865461509</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866448</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822783</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812795</v>
       </c>
       <c r="T41" t="n">
-        <v>106.3740388304717</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111634</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460417</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183729</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415627</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443868</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627841</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915752</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892479</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131692</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788896</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906089</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351681</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090441</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.852712257152</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779021</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246147</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840509</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707215049</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.25865461509</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866448</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812795</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111634</v>
       </c>
       <c r="X44" t="n">
-        <v>238.7568620917952</v>
+        <v>289.0912395460417</v>
       </c>
       <c r="Y44" t="n">
         <v>296.0589625183729</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415627</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443868</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627841</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915752</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892479</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131692</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788896</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906089</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351681</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090441</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.852712257152</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779021</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246147</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="C2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>777.7441318441283</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703879</v>
+        <v>364.5813763321315</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074502</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>242.2021271932779</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>735.5224189118068</v>
       </c>
       <c r="M2" t="n">
-        <v>1039.443159191858</v>
+        <v>1236.689201907255</v>
       </c>
       <c r="N2" t="n">
-        <v>1499.651765818663</v>
+        <v>1236.689201907255</v>
       </c>
       <c r="O2" t="n">
-        <v>1939.691366710991</v>
+        <v>1676.728802799584</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216628</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157678</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.909223717095</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.53692685194</v>
+        <v>1341.156494151694</v>
       </c>
       <c r="V2" t="n">
-        <v>2029.490281697113</v>
+        <v>999.0496848552119</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.4912466654</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="X2" t="n">
-        <v>1269.038641598457</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.5479325190579</v>
+        <v>790.5981662737465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163348</v>
+        <v>657.7430775364624</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576427</v>
+        <v>507.0888470965546</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979074</v>
+        <v>376.9998797180349</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087951</v>
+        <v>240.5533888289226</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192689</v>
+        <v>116.1215827120544</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183495</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183495</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166627</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166627</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580652</v>
+        <v>1138.346177012111</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659818</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376215</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.99925182917</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729039</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927948</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606589</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977656</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110943</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817889</v>
+        <v>837.0572944609551</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572962</v>
+        <v>657.7430775364624</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.9484618662915</v>
+        <v>241.0817140065309</v>
       </c>
       <c r="C4" t="n">
-        <v>643.9484618662915</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="D4" t="n">
-        <v>643.9484618662915</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="E4" t="n">
-        <v>488.389649725494</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="G4" t="n">
-        <v>331.0637149384669</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252016</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.333367008564</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206278</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468254</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>643.9484618662915</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>643.9484618662915</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>643.9484618662915</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>643.9484618662915</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.9484618662915</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.572586185846</v>
+        <v>551.2091433733535</v>
       </c>
       <c r="C5" t="n">
-        <v>1660.572586185846</v>
+        <v>551.2091433733535</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733535</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>551.2091433733535</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>538.3551089437353</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>125.1923534317385</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="J5" t="n">
-        <v>99.81849489543083</v>
+        <v>185.1480988074502</v>
       </c>
       <c r="K5" t="n">
-        <v>99.81849489543083</v>
+        <v>544.130454834912</v>
       </c>
       <c r="L5" t="n">
-        <v>99.81849489543083</v>
+        <v>990.7164596631868</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912859</v>
+        <v>1491.883242658635</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687141</v>
+        <v>1491.883242658635</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658635</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790157</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216628</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.02337179299</v>
+        <v>1820.409826157678</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.02337179299</v>
+        <v>1596.909223717095</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151694</v>
       </c>
       <c r="V5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151694</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.02337179299</v>
+        <v>1341.156494151694</v>
       </c>
       <c r="X5" t="n">
-        <v>1660.572586185846</v>
+        <v>951.7038890847504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1660.572586185846</v>
+        <v>951.7038890847504</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622141</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223063</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437867</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546744</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378062</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967063</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620967063</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>153.6133081183495</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703879</v>
+        <v>473.3524541805759</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703879</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>568.313627932894</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896707</v>
+        <v>1458.085323074338</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1619.294926214708</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931106</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.99925182917</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>1866.068574729039</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927948</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606589</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977656</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977656</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327668</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031755</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.4026254293747</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="C7" t="n">
-        <v>505.4026254293747</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="D7" t="n">
-        <v>349.7695123318894</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="E7" t="n">
-        <v>349.7695123318894</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="F7" t="n">
-        <v>349.7695123318894</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="G7" t="n">
-        <v>331.0637149384669</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999609</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862211</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.333367008564</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206278</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>505.4026254293747</v>
+        <v>725.766011986116</v>
       </c>
       <c r="U7" t="n">
-        <v>505.4026254293747</v>
+        <v>725.766011986116</v>
       </c>
       <c r="V7" t="n">
-        <v>505.4026254293747</v>
+        <v>459.7866668069403</v>
       </c>
       <c r="W7" t="n">
-        <v>505.4026254293747</v>
+        <v>459.7866668069403</v>
       </c>
       <c r="X7" t="n">
-        <v>505.4026254293747</v>
+        <v>225.7063445899234</v>
       </c>
       <c r="Y7" t="n">
-        <v>505.4026254293747</v>
+        <v>225.7063445899234</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>997.1080057340261</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>997.1080057340261</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.092495556534</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.093460524822</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.093460524822</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1397.602751445423</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>210.7856656383638</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>210.7856656383638</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1520.172595964104</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.937775754223</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>931.4373282580789</v>
+        <v>731.4357765463897</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3073.57301486749</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2945.013093714095</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.013093714095</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.846965704802</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.788611960278</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X11" t="n">
-        <v>2127.276688180523</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>1825.726660388312</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443719</v>
@@ -5188,16 +5188,16 @@
         <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5206,7 +5206,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5215,7 +5215,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
         <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.55596630239</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C14" t="n">
-        <v>1254.321146092509</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1254.321146092509</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>946.6783024962415</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>624.7245453134076</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>306.5024710885991</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>77.36010194227832</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.230336043088</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.171982298564</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2159.660058518809</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.110030726598</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669550995</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5458,28 +5458,28 @@
         <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404581</v>
       </c>
       <c r="S16" t="n">
         <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329741</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W16" t="n">
         <v>850.6627251852095</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553809</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592124</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5498,64 +5498,64 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5589,25 +5589,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5792,7 +5792,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,22 +6011,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904123</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351195</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122476</v>
@@ -6409,25 +6409,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286454</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988168</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026485</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958355</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879678</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781092</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634088</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200821</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114493</v>
+        <v>890.2201666674305</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423748</v>
+        <v>590.5275805474735</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855419</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209871</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462876</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534569</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809187</v>
       </c>
       <c r="L32" t="n">
-        <v>1092.011864115833</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1638.012764160414</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797876</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690205</v>
+        <v>2692.223955462118</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462112</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3327.510737231438</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231438</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522554</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432036</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.3494072167</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270283</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588635</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871757</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142424</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846597</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.2619674447519</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662322</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.72650917712</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602518</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321162</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327172</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462876</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643561</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265826</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>499.4043430265826</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554754</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715298</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.2527302241098</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333775</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964157</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459264</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.44278775748565</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462876</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462876</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>148.3852558545706</v>
       </c>
       <c r="L34" t="n">
-        <v>343.1384592729412</v>
+        <v>312.5128957283704</v>
       </c>
       <c r="M34" t="n">
-        <v>637.920545251591</v>
+        <v>613.6740095549333</v>
       </c>
       <c r="N34" t="n">
-        <v>929.600686923186</v>
+        <v>810.7134513543646</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.79596160528</v>
+        <v>1088.287753884372</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022244</v>
+        <v>1323.033455149249</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.4556515193</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501942</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034557</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552856</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448223</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157117</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969545</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.6036317300028</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.6934228967114</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899326</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.435967392389</v>
+        <v>1044.44136036904</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.43609059919</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058682</v>
+        <v>738.1896826232698</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259791</v>
+        <v>418.7364961433809</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2998.507861134593</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2753.842303828244</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.284520786665</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709855</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.223710620589</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344855</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.816506090608</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832561</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325919</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356981</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.809600125277</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690431</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.23195016743679</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529083</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>505.1989733022378</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160315</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.68452782277</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940008</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792116</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237697</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860407</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T43" t="n">
         <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234449</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557603</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288768</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356534</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1517.077765835765</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835765</v>
+        <v>1044.44136036904</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042566</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492442</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693552</v>
+        <v>377.840631225979</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561692</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V44" t="n">
-        <v>2633.907047255343</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.349264213764</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X44" t="n">
-        <v>2119.180716646295</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1820.131259557029</v>
+        <v>1643.22910359724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344855</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.816506090608</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832561</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325919</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356981</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.809600125277</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690431</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170087</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>846.6083287308024</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.68452782277</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940008</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792116</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237697</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860407</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T46" t="n">
         <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234449</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557603</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288768</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356534</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.6887348820936</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305038</v>
       </c>
       <c r="N2" t="n">
-        <v>613.9756697486985</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,7 +8058,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,10 +8067,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565362</v>
+        <v>591.6011865869431</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>341.7619605532387</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>175.5866625467825</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>604.3451443045067</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>655.9541253305038</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622968</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>489.1262098812139</v>
+        <v>591.6011865869431</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589601</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,16 +8453,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,7 +9164,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>505.6668436110179</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>457.616862805975</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>230.4905691364598</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.79760839914093</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.815970093361102e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>14.11306200385772</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>27.87390676836221</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213436</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589422</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.42471811547385</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531164</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589422</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>40.48690626822783</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>50.33437745424666</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>641880.6224450244</v>
+        <v>641579.8486381442</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>641880.6224450244</v>
+        <v>641579.8486381442</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606070.7223834906</v>
+        <v>606070.7223834904</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608657.0689129734</v>
+        <v>608657.0689129733</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631162.6233267487</v>
+      </c>
+      <c r="C2" t="n">
+        <v>631162.6233267487</v>
+      </c>
+      <c r="D2" t="n">
         <v>631162.623326749</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>593166.4293913339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>593166.4293913343</v>
+      </c>
+      <c r="G2" t="n">
         <v>631162.623326749</v>
       </c>
-      <c r="D2" t="n">
-        <v>631162.6233267488</v>
-      </c>
-      <c r="E2" t="n">
-        <v>593166.4293913341</v>
-      </c>
-      <c r="F2" t="n">
-        <v>593166.4293913338</v>
-      </c>
-      <c r="G2" t="n">
-        <v>631162.6233267492</v>
-      </c>
       <c r="H2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.623326749</v>
       </c>
       <c r="I2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="J2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="K2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.6233267484</v>
       </c>
       <c r="L2" t="n">
-        <v>631162.62332675</v>
+        <v>631162.623326749</v>
       </c>
       <c r="M2" t="n">
         <v>631162.6233267491</v>
       </c>
       <c r="N2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.623326749</v>
       </c>
       <c r="O2" t="n">
-        <v>595752.7759208156</v>
+        <v>595752.7759208163</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208158</v>
+        <v>595752.7759208161</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765492</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941878</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301435</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670121</v>
+        <v>46725.80335481285</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555674</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015683</v>
+        <v>18983.55983015687</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.948076001</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066575</v>
+        <v>187720.948076001</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081436</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26457,7 +26457,7 @@
         <v>111818.0002629859</v>
       </c>
       <c r="P4" t="n">
-        <v>111818.0002629859</v>
+        <v>111818.000262986</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.3276829528</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.3276829528</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588331</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205937.2172975914</v>
+        <v>209386.3416912457</v>
       </c>
       <c r="C6" t="n">
-        <v>383932.514431942</v>
+        <v>379035.347567795</v>
       </c>
       <c r="D6" t="n">
-        <v>377060.9933462675</v>
+        <v>369324.7041228755</v>
       </c>
       <c r="E6" t="n">
-        <v>297457.8243807183</v>
+        <v>297349.2638266171</v>
       </c>
       <c r="F6" t="n">
-        <v>427910.7555184303</v>
+        <v>427802.1949643295</v>
       </c>
       <c r="G6" t="n">
-        <v>409150.1931307387</v>
+        <v>409150.1931307385</v>
       </c>
       <c r="H6" t="n">
-        <v>438245.149003753</v>
+        <v>438245.1490037529</v>
       </c>
       <c r="I6" t="n">
-        <v>438245.1490037531</v>
+        <v>438245.1490037526</v>
       </c>
       <c r="J6" t="n">
-        <v>210159.5056540033</v>
+        <v>216675.7908085769</v>
       </c>
       <c r="K6" t="n">
-        <v>432005.3806009697</v>
+        <v>432005.3806009694</v>
       </c>
       <c r="L6" t="n">
-        <v>393111.0336683828</v>
+        <v>389062.1964579091</v>
       </c>
       <c r="M6" t="n">
-        <v>395513.8720693844</v>
+        <v>394462.1770581963</v>
       </c>
       <c r="N6" t="n">
-        <v>438245.1490037531</v>
+        <v>438245.1490037529</v>
       </c>
       <c r="O6" t="n">
-        <v>409630.8080451222</v>
+        <v>409529.6370525344</v>
       </c>
       <c r="P6" t="n">
-        <v>428614.3678752792</v>
+        <v>428513.1968826911</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.8776843078596</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26917,7 +26917,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126794</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087651</v>
+        <v>58.40725419351607</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165938</v>
+        <v>14.33013548901984</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769604</v>
+        <v>23.72944978769608</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651863</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559191</v>
+        <v>646.8007142757106</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045525</v>
+        <v>129.6883820257334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126794</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651863</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>244.5895625002378</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857447</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051499</v>
+        <v>43.99219550355623</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.9568589337895</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713891</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>91.0818012652004</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026949</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,13 +27786,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>148.0527739420607</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>140.1352917780772</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>249.4591561259415</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,16 +29220,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="K26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="L26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="O26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>30.27223765901226</v>
       </c>
-      <c r="K26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.78466270501917</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.586371353925</v>
+        <v>103.286595451364</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.9223746526809</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>13.98970481638597</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265646</v>
       </c>
     </row>
     <row r="35">
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561692803</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561692933</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561692805</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561692944</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023199</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170285627</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="N2" t="n">
-        <v>464.8571784109144</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,10 +34787,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>530.9490039023696</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>249.0744016643498</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.9068246044364</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>451.096974574015</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>403.7540970270472</v>
+        <v>506.2290737327764</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700712</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>372.2447499518083</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>525.0879876732301</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723508</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605127</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649841</v>
+        <v>289.9992824624231</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659175</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,19 +37230,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694747009</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>304.2031452793565</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>199.0297391913448</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636434</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>237.1168699645227</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>6.174568144768955</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.128497157042</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.252334292252</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697213</v>
+        <v>284.640150923024</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451908</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073109</v>
       </c>
       <c r="P43" t="n">
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038447</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807291</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.128497157042</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.252334292252</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.640150923024</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918868</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073109</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548876</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038447</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
